--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malen\VisualStudio-workspace\task1-SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA33C6-2549-4786-B62E-01F54161EC12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC8693-5E77-4170-B6D4-11067124AE14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4932" yWindow="3588" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>JUEGOS DE PRUEBA</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>500*500</t>
+  </si>
+  <si>
+    <t>250*250</t>
+  </si>
+  <si>
+    <t>1000*1000</t>
   </si>
 </sst>
 </file>
@@ -64,16 +70,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,7 +102,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D49"/>
+  <dimension ref="A2:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,23 +514,23 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>3.33</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>3.4969999999999999</v>
+        <v>2.794</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>3.9569999999999999</v>
@@ -540,10 +538,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0460000000000003</v>
+        <v>3.6760000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -551,7 +549,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>7.0940000000000003</v>
+        <v>4.0940000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -591,42 +589,50 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>4.5640000000000001</v>
+        <v>3.0880000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>5.5419999999999998</v>
+        <v>3.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>6.9569999999999999</v>
+        <v>3.8540000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1">
-        <v>7.88</v>
+        <v>4.4160000000000004</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <v>8.2390000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9.7379999999999995</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -639,10 +645,10 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -661,52 +667,225 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>6.26</v>
+        <v>4.6539999999999999</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>5.6660000000000004</v>
+        <v>4.3109999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.4950000000000001</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.6790000000000003</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>100</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
+        <v>8.2840000000000007</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>250</v>
-      </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>500</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9.7159999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6.681</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.3650000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4.7169999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.931</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6.7220000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2">
+        <v>8.2840000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1">
+        <v>12.391</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8.9049999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7.968</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8.1839999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1">
+        <v>11.714</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73" s="2">
+        <v>15.715999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74" s="1">
+        <v>17.977</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malen\VisualStudio-workspace\task1-SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC8693-5E77-4170-B6D4-11067124AE14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D7C99B-9EC5-4E3F-8FA0-73EFCBCC0393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="3588" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6828" yWindow="5112" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +440,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>4.2309999999999999</v>
+        <v>3.843</v>
+      </c>
+      <c r="D7">
+        <f>3.843/C7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -442,7 +452,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0990000000000002</v>
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D12" si="0">3.843/C8</f>
+        <v>1.031124228602093</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -450,7 +464,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>2.9940000000000002</v>
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.1748700703148884</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -458,7 +476,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0009999999999999</v>
+        <v>2.839</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.3536456498767171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -466,7 +488,11 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>2.9870000000000001</v>
+        <v>3.306</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.162431941923775</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,7 +500,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>2.9580000000000002</v>
+        <v>3.456</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.1119791666666667</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -511,6 +541,10 @@
       <c r="C18" s="1">
         <v>2.5680000000000001</v>
       </c>
+      <c r="D18">
+        <f>2.568/C18</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
@@ -519,6 +553,10 @@
       <c r="C19" s="1">
         <v>2.403</v>
       </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D23" si="1">2.568/C19</f>
+        <v>1.0686641697877652</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
@@ -526,6 +564,10 @@
       </c>
       <c r="C20" s="1">
         <v>2.794</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.91911238367931281</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -535,6 +577,10 @@
       <c r="C21" s="1">
         <v>3.9569999999999999</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.64897649734647467</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
@@ -543,6 +589,10 @@
       <c r="C22" s="1">
         <v>3.6760000000000002</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.69858541893362347</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
@@ -551,6 +601,10 @@
       <c r="C23" s="1">
         <v>4.0940000000000003</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.62725940400586222</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -586,6 +640,10 @@
       <c r="C30" s="1">
         <v>2.472</v>
       </c>
+      <c r="D30">
+        <f>2.472/C30</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31">
@@ -594,6 +652,10 @@
       <c r="C31" s="1">
         <v>3.0880000000000001</v>
       </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D36" si="2">2.472/C31</f>
+        <v>0.80051813471502586</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32">
@@ -601,6 +663,10 @@
       </c>
       <c r="C32" s="1">
         <v>3.7749999999999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.65483443708609268</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -610,6 +676,10 @@
       <c r="C33" s="1">
         <v>3.8540000000000001</v>
       </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.64141152049818373</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
@@ -618,6 +688,10 @@
       <c r="C34" s="1">
         <v>4.4160000000000004</v>
       </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.55978260869565211</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
@@ -626,6 +700,10 @@
       <c r="C35" s="1">
         <v>8.2390000000000008</v>
       </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.30003641218594485</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36">
@@ -634,6 +712,10 @@
       <c r="C36" s="1">
         <v>9.7379999999999995</v>
       </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.25385089340727052</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
@@ -669,6 +751,10 @@
       <c r="C42" s="1">
         <v>4.6539999999999999</v>
       </c>
+      <c r="D42">
+        <f>4.654/C42</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43">
@@ -677,6 +763,10 @@
       <c r="C43" s="1">
         <v>4.3109999999999999</v>
       </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D48" si="3">4.654/C43</f>
+        <v>1.0795639062862445</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44">
@@ -684,6 +774,10 @@
       </c>
       <c r="C44" s="1">
         <v>3.4950000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>1.3316165951359085</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -693,6 +787,10 @@
       <c r="C45" s="1">
         <v>3.99</v>
       </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>1.1664160401002506</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46">
@@ -701,6 +799,10 @@
       <c r="C46" s="1">
         <v>4.6790000000000003</v>
       </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>0.99465697798674924</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47">
@@ -709,6 +811,10 @@
       <c r="C47" s="2">
         <v>8.2840000000000007</v>
       </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>0.56180589087397392</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48">
@@ -717,6 +823,10 @@
       <c r="C48" s="1">
         <v>9.7159999999999993</v>
       </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>0.47900370522848912</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
@@ -755,6 +865,10 @@
       <c r="C55" s="1">
         <v>6.681</v>
       </c>
+      <c r="D55">
+        <f>6.681/C55</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
@@ -763,6 +877,10 @@
       <c r="C56" s="1">
         <v>6.3650000000000002</v>
       </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D61" si="4">6.681/C56</f>
+        <v>1.0496465043205028</v>
+      </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
@@ -770,6 +888,10 @@
       </c>
       <c r="C57" s="1">
         <v>4.7169999999999996</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>1.416366334534662</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -779,6 +901,10 @@
       <c r="C58" s="1">
         <v>5.931</v>
       </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>1.1264542235710673</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59">
@@ -787,6 +913,10 @@
       <c r="C59" s="1">
         <v>6.7220000000000004</v>
       </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>0.9939006248140434</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
@@ -795,6 +925,10 @@
       <c r="C60" s="2">
         <v>8.2840000000000007</v>
       </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>0.8064944471269917</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
@@ -803,6 +937,10 @@
       <c r="C61" s="1">
         <v>12.391</v>
       </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>0.5391816641110484</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
@@ -838,6 +976,10 @@
       <c r="C68" s="1">
         <v>8.9049999999999994</v>
       </c>
+      <c r="D68">
+        <f>8.905/C68</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69">
@@ -846,6 +988,10 @@
       <c r="C69" s="1">
         <v>7.968</v>
       </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D74" si="5">8.905/C69</f>
+        <v>1.1175953815261044</v>
+      </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70">
@@ -853,6 +999,10 @@
       </c>
       <c r="C70" s="1">
         <v>7.19</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>1.2385257301808066</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -862,6 +1012,10 @@
       <c r="C71" s="1">
         <v>8.1839999999999993</v>
       </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>1.0880987292277615</v>
+      </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72">
@@ -870,6 +1024,10 @@
       <c r="C72" s="1">
         <v>11.714</v>
       </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>0.76020146832849578</v>
+      </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
@@ -878,6 +1036,10 @@
       <c r="C73" s="2">
         <v>15.715999999999999</v>
       </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>0.56662000509035382</v>
+      </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74">
@@ -885,6 +1047,10 @@
       </c>
       <c r="C74" s="1">
         <v>17.977</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>0.49535517605829665</v>
       </c>
     </row>
   </sheetData>
